--- a/Encoder-Calibration/EncoderCalibration.xlsx
+++ b/Encoder-Calibration/EncoderCalibration.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="trial1.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial1.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial1.txt">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -41,7 +41,7 @@
     </textPr>
   </connection>
   <connection id="2" name="trial2.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial2.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial2.txt">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -51,7 +51,7 @@
     </textPr>
   </connection>
   <connection id="3" name="trial3.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial3.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial3.txt">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -61,7 +61,7 @@
     </textPr>
   </connection>
   <connection id="4" name="trial4.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial4.txt">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:chris:Dropbox:AMSGroupL:Encoder-Calibration:ViconLogs:trial4.txt">
       <textFields>
         <textField/>
       </textFields>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Trial 1</t>
   </si>
@@ -135,15 +135,37 @@
   <si>
     <t>mm / tick</t>
   </si>
+  <si>
+    <t>Angular:</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,55 +207,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="37" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="42">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -252,6 +280,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -270,7 +300,10 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="37" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -615,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -630,33 +663,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
       <c r="N2" t="s">
         <v>19</v>
       </c>
@@ -703,19 +736,19 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3.38031081999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.5470186663200001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>4.5705451036099998</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2.4751418850200002</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <f>SQRT((B4-D4)^2 + (C4-E4)^2)</f>
         <v>1.1924025836916246</v>
       </c>
@@ -743,7 +776,7 @@
         <f>(M4+J4)/2</f>
         <v>25179.5</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f>(F4*1000)/N4</f>
         <v>4.7356086645549939E-2</v>
       </c>
@@ -752,19 +785,19 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>5.7533029072600002</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2.4321484081900002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>6.9354277882500002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.3995014807000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F7" si="0">SQRT((B5-D5)^2 + (C5-E5)^2)</f>
         <v>1.1825756027122152</v>
       </c>
@@ -792,7 +825,7 @@
         <f t="shared" ref="N5:N7" si="3">(M5+J5)/2</f>
         <v>25070.5</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f>(F5*1000)/N5</f>
         <v>4.7170004695248006E-2</v>
       </c>
@@ -801,19 +834,19 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>6.8869133269200002</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2.3301664352899998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>5.7046937379499996</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2.4425347349900002</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>1.187547805910089</v>
       </c>
@@ -841,7 +874,7 @@
         <f t="shared" si="3"/>
         <v>25186</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" ref="P6:P7" si="4">(F6*1000)/N6</f>
         <v>4.7151107992936113E-2</v>
       </c>
@@ -850,19 +883,19 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>5.7034787320099998</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2.4396779520799998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4.5138519842199996</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.5453899290300002</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>1.1943143728215324</v>
       </c>
@@ -890,7 +923,7 @@
         <f t="shared" si="3"/>
         <v>25183.5</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="4"/>
         <v>4.7424479235274389E-2</v>
       </c>
@@ -899,7 +932,7 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f>AVERAGE(F4:F8)</f>
         <v>1.1892100912838652</v>
       </c>
@@ -907,17 +940,52 @@
         <f>AVERAGE(J4:J8)</f>
         <v>25133.25</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <f>AVERAGE(M4:M8)</f>
         <v>25176.5</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f>AVERAGE(N4:N8)</f>
         <v>25154.875</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f>AVERAGE(P4:P8)</f>
         <v>4.7275419642252112E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <f>6*PI()-0.6</f>
+        <v>18.249555921538757</v>
+      </c>
+      <c r="C17">
+        <f>6*PI()-0.046</f>
+        <v>18.803555921538759</v>
+      </c>
+      <c r="D17">
+        <f>C17-B17</f>
+        <v>0.55400000000000205</v>
+      </c>
+      <c r="E17" s="5">
+        <f>(B17/C17)</f>
+        <v>0.97053748757353842</v>
       </c>
     </row>
   </sheetData>
